--- a/analysis/Brook Trout Project/Chapter3/SGCN_Occupancy_ModelTable.xlsx
+++ b/analysis/Brook Trout Project/Chapter3/SGCN_Occupancy_ModelTable.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="3075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="3075" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Occupancy" sheetId="1" r:id="rId1"/>
+    <sheet name="CPUE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>AICc</t>
   </si>
@@ -81,6 +82,42 @@
   </si>
   <si>
     <t>Model formula</t>
+  </si>
+  <si>
+    <t>cott.full.mod</t>
+  </si>
+  <si>
+    <t>cott.env.mod</t>
+  </si>
+  <si>
+    <t>cott.null.mod</t>
+  </si>
+  <si>
+    <t>cott.brt.mod</t>
+  </si>
+  <si>
+    <t>lnd.full.mod</t>
+  </si>
+  <si>
+    <t>lnd.env.mod</t>
+  </si>
+  <si>
+    <t>lnd.null.mod</t>
+  </si>
+  <si>
+    <t>lnd.brt.mod</t>
+  </si>
+  <si>
+    <t>srd.full.mod</t>
+  </si>
+  <si>
+    <t>srd.env.mod</t>
+  </si>
+  <si>
+    <t>srd.brt.mod</t>
+  </si>
+  <si>
+    <t>srd.null.mod</t>
   </si>
 </sst>
 </file>
@@ -405,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
@@ -695,4 +732,321 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-137.742421523269</v>
+      </c>
+      <c r="D2" s="3">
+        <v>292.59253535422999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.98719822843236604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-144.324592836645</v>
+      </c>
+      <c r="D3" s="3">
+        <v>301.28554930965402</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8.6930139554245898</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.2786166967774E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-154.48959770789401</v>
+      </c>
+      <c r="D4" s="3">
+        <v>315.15697319356599</v>
+      </c>
+      <c r="E4" s="3">
+        <v>22.564437839336598</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.24336588415645E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-153.71930150982601</v>
+      </c>
+      <c r="D5" s="3">
+        <v>317.88973083920098</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25.297195484970899</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.1709410185287598E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-188.474477443225</v>
+      </c>
+      <c r="D9" s="3">
+        <v>394.05664719414199</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.53165377993969398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-191.36241719683801</v>
+      </c>
+      <c r="D10" s="3">
+        <v>395.36119803003902</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.30455083589641</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.27691679166254202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-195.329424845814</v>
+      </c>
+      <c r="D11" s="3">
+        <v>396.83662746940502</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.7799802752625702</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.13242313319638299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-194.001108038654</v>
+      </c>
+      <c r="D12" s="3">
+        <v>398.45334389685598</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.3966967027135997</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.9006295201380503E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-156.111326616361</v>
+      </c>
+      <c r="D15" s="3">
+        <v>329.33034554041399</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.99845651412804703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-165.38013465089099</v>
+      </c>
+      <c r="D16" s="3">
+        <v>343.39663293814601</v>
+      </c>
+      <c r="E16" s="3">
+        <v>14.066287397731999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8.8079259727386603E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-166.757276678392</v>
+      </c>
+      <c r="D17" s="3">
+        <v>343.965681176332</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14.6353356359181</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6.6268387182623605E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-180.05699187787499</v>
+      </c>
+      <c r="D18" s="3">
+        <v>366.29176153352802</v>
+      </c>
+      <c r="E18" s="3">
+        <v>36.961415993114002</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.4028530775902406E-9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analysis/Brook Trout Project/Chapter3/SGCN_Occupancy_ModelTable.xlsx
+++ b/analysis/Brook Trout Project/Chapter3/SGCN_Occupancy_ModelTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="3075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="3075"/>
   </bookViews>
   <sheets>
     <sheet name="Occupancy" sheetId="1" r:id="rId1"/>
@@ -60,12 +60,6 @@
     <t>Longnose Dace</t>
   </si>
   <si>
-    <t>p(~1)Psi(~avwid + pctcbbl + pctSlope + med_len + BRT_100m)</t>
-  </si>
-  <si>
-    <t>p(~1)Psi(~avwid + pctcbbl + pctSlope)</t>
-  </si>
-  <si>
     <t>p(~1)Psi(~med_len + BRT_100m)</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>srd.null.mod</t>
+  </si>
+  <si>
+    <t>p(~1)Psi(~Area_km2 + pctcbbl + pctSlope + med_len + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~1)Psi(~Area_km2 + pctcbbl + pctSlope)</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -566,67 +566,67 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>227.66032999999999</v>
+        <v>246.70421999999999</v>
       </c>
       <c r="D9" s="3">
-        <v>242.515291832061</v>
+        <v>261.55918183206097</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.99975226277221096</v>
+        <v>0.92818034409908401</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>248.71082000000001</v>
+        <v>258.67410000000001</v>
       </c>
       <c r="D10" s="3">
-        <v>259.16194781954903</v>
+        <v>266.97260746268699</v>
       </c>
       <c r="E10" s="3">
-        <v>16.646655987487801</v>
+        <v>5.4134256306255697</v>
       </c>
       <c r="F10" s="3">
-        <v>2.4272637893542801E-4</v>
+        <v>6.1961500649566799E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>258.67410000000001</v>
+        <v>260.54451</v>
       </c>
       <c r="D11" s="3">
-        <v>266.97260746268699</v>
+        <v>270.99563781954902</v>
       </c>
       <c r="E11" s="3">
-        <v>24.457315630625502</v>
+        <v>9.43645598748782</v>
       </c>
       <c r="F11" s="3">
-        <v>4.8871288056380703E-6</v>
+        <v>8.2895696551185706E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -638,20 +638,20 @@
         <v>274.32528529411798</v>
       </c>
       <c r="E12" s="3">
-        <v>31.8099934620566</v>
+        <v>12.7661034620566</v>
       </c>
       <c r="F12" s="3">
-        <v>1.2372004827326801E-7</v>
+        <v>1.5685855962307999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +749,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -873,7 +873,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -968,7 +968,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>3</v>

--- a/analysis/Brook Trout Project/Chapter3/SGCN_Occupancy_ModelTable.xlsx
+++ b/analysis/Brook Trout Project/Chapter3/SGCN_Occupancy_ModelTable.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="3075"/>
   </bookViews>
   <sheets>
-    <sheet name="Occupancy" sheetId="1" r:id="rId1"/>
-    <sheet name="CPUE" sheetId="2" r:id="rId2"/>
+    <sheet name="Detection" sheetId="2" r:id="rId1"/>
+    <sheet name="Occupancy" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>AICc</t>
   </si>
@@ -45,79 +45,61 @@
     <t>Sculpin</t>
   </si>
   <si>
-    <t>p(~mFlow)Psi(~avgT + mFlow + HAiFLS_for + med_len + BRT_100m)</t>
-  </si>
-  <si>
-    <t>p(~mFlow)Psi(~avgT + mFlow + HAiFLS_for)</t>
-  </si>
-  <si>
-    <t>p(~mFlow)Psi(~med_len + BRT_100m)</t>
-  </si>
-  <si>
-    <t>p(~mFlow)Psi(~1)</t>
-  </si>
-  <si>
     <t>Longnose Dace</t>
   </si>
   <si>
-    <t>p(~1)Psi(~med_len + BRT_100m)</t>
-  </si>
-  <si>
-    <t>p(~1)Psi(~1)</t>
-  </si>
-  <si>
     <t>Southern Redbelly Dace</t>
   </si>
   <si>
-    <t>p(~1)Psi(~avgT + avdep + pctfines + med_len + BRT_100m)</t>
-  </si>
-  <si>
-    <t>p(~1)Psi(~avgT + avdep + pctfines)</t>
-  </si>
-  <si>
     <t>Model formula</t>
   </si>
   <si>
-    <t>cott.full.mod</t>
-  </si>
-  <si>
-    <t>cott.env.mod</t>
-  </si>
-  <si>
-    <t>cott.null.mod</t>
-  </si>
-  <si>
-    <t>cott.brt.mod</t>
-  </si>
-  <si>
-    <t>lnd.full.mod</t>
-  </si>
-  <si>
-    <t>lnd.env.mod</t>
-  </si>
-  <si>
-    <t>lnd.null.mod</t>
-  </si>
-  <si>
-    <t>lnd.brt.mod</t>
-  </si>
-  <si>
-    <t>srd.full.mod</t>
-  </si>
-  <si>
-    <t>srd.env.mod</t>
-  </si>
-  <si>
-    <t>srd.brt.mod</t>
-  </si>
-  <si>
-    <t>srd.null.mod</t>
-  </si>
-  <si>
-    <t>p(~1)Psi(~Area_km2 + pctcbbl + pctSlope + med_len + BRT_100m)</t>
-  </si>
-  <si>
-    <t>p(~1)Psi(~Area_km2 + pctcbbl + pctSlope)</t>
+    <t>p(~mFlow)Psi(~avgT + mFlow + HAiFLS_for + boulder + med_len + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~mFlow)Psi(~HAiFLS_for + boulder + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~1)Psi(~Area_km2 + pctcbbl + elev_m + avgT + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~1)Psi(~Area_km2 + pctcbbl + elev_m + avgT)</t>
+  </si>
+  <si>
+    <t>p(~1)Psi(~Area_km2 + pctcbbl + elev_m + avgT + med_len + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~1)Psi(~pctcbbl + elev_m + avgT + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~avdep)Psi(~avgT + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~avdep)Psi(~avgT + avdep + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~avdep)Psi(~avgT + pctfines + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~avdep)Psi(~avgT + avdep + pctfines + BRT_100m)</t>
+  </si>
+  <si>
+    <t>p(~mFlow)Psi(~Global)</t>
+  </si>
+  <si>
+    <t>p(~1)Psi(~Global)</t>
+  </si>
+  <si>
+    <t>p(~pctcbbl)Psi(~Global)</t>
+  </si>
+  <si>
+    <t>p(~pctcbbl+mFlow)Psi(~Global)</t>
+  </si>
+  <si>
+    <t>p(~avdep)Psi(~Global)</t>
+  </si>
+  <si>
+    <t>p(~mFlow+avdep)Psi(~Global)</t>
   </si>
 </sst>
 </file>
@@ -153,13 +135,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,21 +427,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -478,255 +459,279 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>129.65851000000001</v>
-      </c>
-      <c r="D3" s="3">
-        <v>146.766202307692</v>
-      </c>
-      <c r="E3" s="3">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>124.53819</v>
+      </c>
+      <c r="D3" s="4">
+        <v>143.933538837209</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.99572239121440898</v>
+      <c r="F3" s="4">
+        <v>0.67204317436454797</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>145.54834</v>
-      </c>
-      <c r="D4" s="3">
-        <v>158.18470363636399</v>
-      </c>
-      <c r="E4" s="3">
-        <v>11.418501328671301</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3.3009748393685399E-3</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>124.52607</v>
+      </c>
+      <c r="D4" s="4">
+        <v>146.24482</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.3112811627907202</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.21159667888918801</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>150.18531999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>160.63644781954901</v>
-      </c>
-      <c r="E5" s="3">
-        <v>13.8702455118566</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9.6884149058992905E-4</v>
+      <c r="C5" s="4">
+        <v>131.22821999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>148.33591230769201</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.4023734704830098</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7.4376189036557003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>164.10455999999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>170.282337777778</v>
-      </c>
-      <c r="E6" s="3">
-        <v>23.516135470085501</v>
-      </c>
-      <c r="F6" s="3">
-        <v>7.7924556322314707E-6</v>
-      </c>
+      <c r="C6" s="4">
+        <v>130.08426</v>
+      </c>
+      <c r="D6" s="4">
+        <v>149.47960883720901</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.54607000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.1983957709706997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>246.70421999999999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>261.55918183206097</v>
-      </c>
-      <c r="E9" s="3">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>215.01374999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>232.12</v>
+      </c>
+      <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.92818034409908401</v>
+      <c r="F9" s="4">
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>258.67410000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>266.97260746268699</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5.4134256306255697</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6.1961500649566799E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>213.48249999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>232.88</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.75641000000000003</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>260.54451</v>
-      </c>
-      <c r="D11" s="3">
-        <v>270.99563781954902</v>
-      </c>
-      <c r="E11" s="3">
-        <v>9.43645598748782</v>
-      </c>
-      <c r="F11" s="3">
-        <v>8.2895696551185706E-3</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>214.90087</v>
+      </c>
+      <c r="D11" s="4">
+        <v>234.3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>270.23705000000001</v>
-      </c>
-      <c r="D12" s="3">
-        <v>274.32528529411798</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12.7661034620566</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.5685855962307999E-3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>213.47033999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>235.19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3">
-        <v>238.27893</v>
-      </c>
-      <c r="D15" s="3">
-        <v>253.13389183206101</v>
-      </c>
-      <c r="E15" s="3">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>233.57581999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>250.68351230769201</v>
+      </c>
+      <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0.96718708747527804</v>
+      <c r="F15" s="4">
+        <v>0.54172900456940898</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>249.58305999999999</v>
-      </c>
-      <c r="D16" s="3">
-        <v>260.034187819549</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6.9002959874877696</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3.0699425929366201E-2</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <v>233.29159999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>252.686948837209</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.00343652951699</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.1989488228564</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>257.08762999999999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>265.38613746268697</v>
-      </c>
-      <c r="E17" s="3">
-        <v>12.252245630625501</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2.11333894149183E-3</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>238.27893</v>
+      </c>
+      <c r="D17" s="4">
+        <v>253.13389183206101</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.45037952436877</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.159106871248552</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>280.43572</v>
-      </c>
-      <c r="D18" s="3">
-        <v>284.52395529411802</v>
-      </c>
-      <c r="E18" s="3">
-        <v>31.390063462056599</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1.4765386368769701E-7</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>236.95070999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>254.05840230769201</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.37488999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.10021530132563999</v>
       </c>
     </row>
   </sheetData>
@@ -736,20 +741,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B13" sqref="B13:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.42578125" customWidth="1"/>
+    <col min="1" max="1" width="68.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -771,279 +781,215 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-137.742421523269</v>
-      </c>
-      <c r="D2" s="3">
-        <v>292.59253535422999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.98719822843236604</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-144.324592836645</v>
-      </c>
-      <c r="D3" s="3">
-        <v>301.28554930965402</v>
-      </c>
-      <c r="E3" s="3">
-        <v>8.6930139554245898</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.2786166967774E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>124.53819</v>
+      </c>
+      <c r="D3" s="4">
+        <v>143.933538837209</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.39031845774887802</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-154.48959770789401</v>
-      </c>
-      <c r="D4" s="3">
-        <v>315.15697319356599</v>
-      </c>
-      <c r="E4" s="3">
-        <v>22.564437839336598</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.24336588415645E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-153.71930150982601</v>
-      </c>
-      <c r="D5" s="3">
-        <v>317.88973083920098</v>
-      </c>
-      <c r="E5" s="3">
-        <v>25.297195484970899</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.1709410185287598E-6</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>133.32642000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>145.96278363636401</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.0292447991543598</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.141505780052219</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>215.50756000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>230.36252183206099</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.315908413622638</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>218.61098999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>231.24735363636401</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.88483180430253605</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.20296558631292599</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
-        <v>-188.474477443225</v>
-      </c>
-      <c r="D9" s="3">
-        <v>394.05664719414199</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.53165377993969398</v>
+      <c r="C9" s="4">
+        <v>215.01374999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>232.12144230769201</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.75892047563121</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.131104157598878</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
-        <v>-191.36241719683801</v>
-      </c>
-      <c r="D10" s="3">
-        <v>395.36119803003902</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.30455083589641</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.27691679166254202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-195.329424845814</v>
-      </c>
-      <c r="D11" s="3">
-        <v>396.83662746940502</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.7799802752625702</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.13242313319638299</v>
+      <c r="C10" s="4">
+        <v>220.30554000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>232.941903636364</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.5793818043025598</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8.6987239816221695E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="3">
-        <v>-194.001108038654</v>
-      </c>
-      <c r="D12" s="3">
-        <v>398.45334389685598</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.3966967027135997</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5.9006295201380503E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="4">
+        <v>234.71787</v>
+      </c>
+      <c r="D13" s="4">
+        <v>245.16899781954899</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.455680034550699</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4">
+        <v>234.00524999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>246.64161363636401</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.4726158168147401</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.21821547153933199</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-156.111326616361</v>
-      </c>
-      <c r="D15" s="3">
-        <v>329.33034554041399</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.99845651412804703</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>234.43415999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>247.07052363636399</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.90152581681474</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.176095766729502</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
-        <v>-165.38013465089099</v>
-      </c>
-      <c r="D16" s="3">
-        <v>343.39663293814601</v>
-      </c>
-      <c r="E16" s="3">
-        <v>14.066287397731999</v>
-      </c>
-      <c r="F16" s="3">
-        <v>8.8079259727386603E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-166.757276678392</v>
-      </c>
-      <c r="D17" s="3">
-        <v>343.965681176332</v>
-      </c>
-      <c r="E17" s="3">
-        <v>14.6353356359181</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6.6268387182623605E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>-180.05699187787499</v>
-      </c>
-      <c r="D18" s="3">
-        <v>366.29176153352802</v>
-      </c>
-      <c r="E18" s="3">
-        <v>36.961415993114002</v>
-      </c>
-      <c r="F18" s="3">
-        <v>9.4028530775902406E-9</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>233.62030999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>248.475271832061</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.3062740125121799</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.7239209348886695E-2</v>
       </c>
     </row>
   </sheetData>
